--- a/data/trans_orig/P78DS5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78DS5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9867373E-E196-48B5-B1DE-FA4642989C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{885340E6-2007-4BEA-A357-8F84DBD5011D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDD9AD17-A7E2-47EB-9723-D15D64B076FC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8952945-9F26-465B-A55F-B40215986E36}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="66">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 5 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -155,13 +155,13 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,52%</t>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,28%</t>
+    <t>0,27%</t>
   </si>
   <si>
     <t>99,7%</t>
@@ -170,13 +170,13 @@
     <t>99,9%</t>
   </si>
   <si>
-    <t>99,48%</t>
+    <t>99,45%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,72%</t>
+    <t>99,73%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -188,7 +188,7 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -200,7 +200,7 @@
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,38%</t>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,94%</t>
@@ -224,16 +224,10 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
     <t>0,02%</t>
   </si>
   <si>
     <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -651,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3016114-7DF4-4BE5-9711-CCB2262D4E27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEA996E-B7DE-4583-A5E9-F1AE47B18F58}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1431,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1479,7 +1473,7 @@
         <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1726,7 +1720,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -1735,7 +1729,7 @@
         <v>1425</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
@@ -1771,10 +1765,10 @@
         <v>3654177</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -1786,7 +1780,7 @@
         <v>6929000</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>60</v>
@@ -1848,7 +1842,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78DS5_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{885340E6-2007-4BEA-A357-8F84DBD5011D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D157ADA-3EC8-4A77-8829-02E9ECF22212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8952945-9F26-465B-A55F-B40215986E36}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61DFEC6F-EF81-48E5-A017-2CDF87EA22E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEA996E-B7DE-4583-A5E9-F1AE47B18F58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052DA814-91CA-4428-85BE-6CDACC11C2CF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
